--- a/data/report_template.xlsx
+++ b/data/report_template.xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>순번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,29 +386,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,13 +419,10 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/report_template.xlsx
+++ b/data/report_template.xlsx
@@ -41,6 +41,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -104,6 +107,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -389,7 +398,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -397,7 +406,7 @@
     <col min="1" max="1" width="26.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="23" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -416,7 +425,7 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
